--- a/Tools/ExportDataTable/Excel/EnemyConfig.xlsx
+++ b/Tools/ExportDataTable/Excel/EnemyConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16245" windowHeight="5085"/>
+    <workbookView windowHeight="18540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
     <t>10</t>
   </si>
   <si>
-    <t>EnemyActor.prefab</t>
+    <t>EnemyActor</t>
   </si>
   <si>
     <t>12</t>
@@ -1049,7 +1049,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
